--- a/ArchivosParaPruebas/AlumnosImportacionMasiva.xlsx
+++ b/ArchivosParaPruebas/AlumnosImportacionMasiva.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\ArchivosParaPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CB461-2F07-4177-913A-A1724B010AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89488A79-276B-4429-9673-EE5D07D264E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="656">
   <si>
     <t>legajo</t>
   </si>
@@ -1303,13 +1303,703 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>AL41096</t>
+  </si>
+  <si>
+    <t>AL41097</t>
+  </si>
+  <si>
+    <t>AL41098</t>
+  </si>
+  <si>
+    <t>AL41099</t>
+  </si>
+  <si>
+    <t>AL41100</t>
+  </si>
+  <si>
+    <t>AL41101</t>
+  </si>
+  <si>
+    <t>AL41102</t>
+  </si>
+  <si>
+    <t>AL41103</t>
+  </si>
+  <si>
+    <t>AL41104</t>
+  </si>
+  <si>
+    <t>AL41105</t>
+  </si>
+  <si>
+    <t>AL41106</t>
+  </si>
+  <si>
+    <t>AL41107</t>
+  </si>
+  <si>
+    <t>AL41108</t>
+  </si>
+  <si>
+    <t>AL41109</t>
+  </si>
+  <si>
+    <t>AL41110</t>
+  </si>
+  <si>
+    <t>AL41111</t>
+  </si>
+  <si>
+    <t>AL41112</t>
+  </si>
+  <si>
+    <t>AL41113</t>
+  </si>
+  <si>
+    <t>AL41114</t>
+  </si>
+  <si>
+    <t>AL41115</t>
+  </si>
+  <si>
+    <t>AL41116</t>
+  </si>
+  <si>
+    <t>AL41117</t>
+  </si>
+  <si>
+    <t>AL41118</t>
+  </si>
+  <si>
+    <t>AL41119</t>
+  </si>
+  <si>
+    <t>AL41120</t>
+  </si>
+  <si>
+    <t>AL41121</t>
+  </si>
+  <si>
+    <t>AL41122</t>
+  </si>
+  <si>
+    <t>AL41123</t>
+  </si>
+  <si>
+    <t>AL41124</t>
+  </si>
+  <si>
+    <t>AL41125</t>
+  </si>
+  <si>
+    <t>AL41126</t>
+  </si>
+  <si>
+    <t>AL41127</t>
+  </si>
+  <si>
+    <t>AL41128</t>
+  </si>
+  <si>
+    <t>AL41129</t>
+  </si>
+  <si>
+    <t>AL41130</t>
+  </si>
+  <si>
+    <t>AL41131</t>
+  </si>
+  <si>
+    <t>AL41132</t>
+  </si>
+  <si>
+    <t>AL41133</t>
+  </si>
+  <si>
+    <t>AL41134</t>
+  </si>
+  <si>
+    <t>AL41135</t>
+  </si>
+  <si>
+    <t>AL41136</t>
+  </si>
+  <si>
+    <t>AL41137</t>
+  </si>
+  <si>
+    <t>AL41138</t>
+  </si>
+  <si>
+    <t>AL41139</t>
+  </si>
+  <si>
+    <t>AL41140</t>
+  </si>
+  <si>
+    <t>AL41141</t>
+  </si>
+  <si>
+    <t>AL41142</t>
+  </si>
+  <si>
+    <t>AL41143</t>
+  </si>
+  <si>
+    <t>AL41144</t>
+  </si>
+  <si>
+    <t>AL41145</t>
+  </si>
+  <si>
+    <t>AL41146</t>
+  </si>
+  <si>
+    <t>AL41147</t>
+  </si>
+  <si>
+    <t>AL41148</t>
+  </si>
+  <si>
+    <t>AL41149</t>
+  </si>
+  <si>
+    <t>AL41150</t>
+  </si>
+  <si>
+    <t>AL41151</t>
+  </si>
+  <si>
+    <t>AL41152</t>
+  </si>
+  <si>
+    <t>AL41153</t>
+  </si>
+  <si>
+    <t>AL41154</t>
+  </si>
+  <si>
+    <t>AL41155</t>
+  </si>
+  <si>
+    <t>AL41156</t>
+  </si>
+  <si>
+    <t>AL41157</t>
+  </si>
+  <si>
+    <t>AL41158</t>
+  </si>
+  <si>
+    <t>AL41159</t>
+  </si>
+  <si>
+    <t>AL41160</t>
+  </si>
+  <si>
+    <t>AL41161</t>
+  </si>
+  <si>
+    <t>AL41162</t>
+  </si>
+  <si>
+    <t>AL41163</t>
+  </si>
+  <si>
+    <t>AL41164</t>
+  </si>
+  <si>
+    <t>AL41165</t>
+  </si>
+  <si>
+    <t>AL41166</t>
+  </si>
+  <si>
+    <t>AL41167</t>
+  </si>
+  <si>
+    <t>AL41168</t>
+  </si>
+  <si>
+    <t>AL41169</t>
+  </si>
+  <si>
+    <t>AL41170</t>
+  </si>
+  <si>
+    <t>AL41171</t>
+  </si>
+  <si>
+    <t>AL41172</t>
+  </si>
+  <si>
+    <t>AL41173</t>
+  </si>
+  <si>
+    <t>AL41174</t>
+  </si>
+  <si>
+    <t>AL41175</t>
+  </si>
+  <si>
+    <t>AL41176</t>
+  </si>
+  <si>
+    <t>AL41177</t>
+  </si>
+  <si>
+    <t>AL41178</t>
+  </si>
+  <si>
+    <t>AL41179</t>
+  </si>
+  <si>
+    <t>AL41180</t>
+  </si>
+  <si>
+    <t>AL41181</t>
+  </si>
+  <si>
+    <t>AL41182</t>
+  </si>
+  <si>
+    <t>AL41183</t>
+  </si>
+  <si>
+    <t>AL41184</t>
+  </si>
+  <si>
+    <t>AL41185</t>
+  </si>
+  <si>
+    <t>AL41186</t>
+  </si>
+  <si>
+    <t>AL41187</t>
+  </si>
+  <si>
+    <t>AL41188</t>
+  </si>
+  <si>
+    <t>AL41189</t>
+  </si>
+  <si>
+    <t>AL41190</t>
+  </si>
+  <si>
+    <t>AL41191</t>
+  </si>
+  <si>
+    <t>AL41192</t>
+  </si>
+  <si>
+    <t>AL41193</t>
+  </si>
+  <si>
+    <t>AL41194</t>
+  </si>
+  <si>
+    <t>AL41195</t>
+  </si>
+  <si>
+    <t>AL41196</t>
+  </si>
+  <si>
+    <t>AL41197</t>
+  </si>
+  <si>
+    <t>AL41198</t>
+  </si>
+  <si>
+    <t>AL41199</t>
+  </si>
+  <si>
+    <t>AL41200</t>
+  </si>
+  <si>
+    <t>AL41201</t>
+  </si>
+  <si>
+    <t>AL41202</t>
+  </si>
+  <si>
+    <t>AL41203</t>
+  </si>
+  <si>
+    <t>AL41204</t>
+  </si>
+  <si>
+    <t>AL41205</t>
+  </si>
+  <si>
+    <t>AL41206</t>
+  </si>
+  <si>
+    <t>AL41207</t>
+  </si>
+  <si>
+    <t>AL41208</t>
+  </si>
+  <si>
+    <t>AL41209</t>
+  </si>
+  <si>
+    <t>AL41210</t>
+  </si>
+  <si>
+    <t>AL41211</t>
+  </si>
+  <si>
+    <t>AL41212</t>
+  </si>
+  <si>
+    <t>AL41213</t>
+  </si>
+  <si>
+    <t>AL41214</t>
+  </si>
+  <si>
+    <t>AL41215</t>
+  </si>
+  <si>
+    <t>AL41216</t>
+  </si>
+  <si>
+    <t>AL41217</t>
+  </si>
+  <si>
+    <t>AL41218</t>
+  </si>
+  <si>
+    <t>AL41219</t>
+  </si>
+  <si>
+    <t>AL41220</t>
+  </si>
+  <si>
+    <t>AL41221</t>
+  </si>
+  <si>
+    <t>AL41222</t>
+  </si>
+  <si>
+    <t>AL41223</t>
+  </si>
+  <si>
+    <t>AL41224</t>
+  </si>
+  <si>
+    <t>AL41225</t>
+  </si>
+  <si>
+    <t>AL41226</t>
+  </si>
+  <si>
+    <t>AL41227</t>
+  </si>
+  <si>
+    <t>AL41228</t>
+  </si>
+  <si>
+    <t>AL41229</t>
+  </si>
+  <si>
+    <t>AL41230</t>
+  </si>
+  <si>
+    <t>AL41231</t>
+  </si>
+  <si>
+    <t>AL41232</t>
+  </si>
+  <si>
+    <t>AL41233</t>
+  </si>
+  <si>
+    <t>AL41234</t>
+  </si>
+  <si>
+    <t>AL41235</t>
+  </si>
+  <si>
+    <t>AL41236</t>
+  </si>
+  <si>
+    <t>AL41237</t>
+  </si>
+  <si>
+    <t>AL41238</t>
+  </si>
+  <si>
+    <t>AL41239</t>
+  </si>
+  <si>
+    <t>AL41240</t>
+  </si>
+  <si>
+    <t>AL41241</t>
+  </si>
+  <si>
+    <t>AL41242</t>
+  </si>
+  <si>
+    <t>AL41243</t>
+  </si>
+  <si>
+    <t>AL41244</t>
+  </si>
+  <si>
+    <t>AL41245</t>
+  </si>
+  <si>
+    <t>AL41246</t>
+  </si>
+  <si>
+    <t>AL41247</t>
+  </si>
+  <si>
+    <t>AL41248</t>
+  </si>
+  <si>
+    <t>AL41249</t>
+  </si>
+  <si>
+    <t>AL41250</t>
+  </si>
+  <si>
+    <t>AL41251</t>
+  </si>
+  <si>
+    <t>AL41252</t>
+  </si>
+  <si>
+    <t>AL41253</t>
+  </si>
+  <si>
+    <t>AL41254</t>
+  </si>
+  <si>
+    <t>AL41255</t>
+  </si>
+  <si>
+    <t>AL41256</t>
+  </si>
+  <si>
+    <t>AL41257</t>
+  </si>
+  <si>
+    <t>AL41258</t>
+  </si>
+  <si>
+    <t>AL41259</t>
+  </si>
+  <si>
+    <t>AL41260</t>
+  </si>
+  <si>
+    <t>AL41261</t>
+  </si>
+  <si>
+    <t>AL41262</t>
+  </si>
+  <si>
+    <t>AL41263</t>
+  </si>
+  <si>
+    <t>AL41264</t>
+  </si>
+  <si>
+    <t>AL41265</t>
+  </si>
+  <si>
+    <t>AL41266</t>
+  </si>
+  <si>
+    <t>AL41267</t>
+  </si>
+  <si>
+    <t>AL41268</t>
+  </si>
+  <si>
+    <t>AL41269</t>
+  </si>
+  <si>
+    <t>AL41270</t>
+  </si>
+  <si>
+    <t>AL41271</t>
+  </si>
+  <si>
+    <t>AL41272</t>
+  </si>
+  <si>
+    <t>AL41273</t>
+  </si>
+  <si>
+    <t>AL41274</t>
+  </si>
+  <si>
+    <t>AL41275</t>
+  </si>
+  <si>
+    <t>AL41276</t>
+  </si>
+  <si>
+    <t>AL41277</t>
+  </si>
+  <si>
+    <t>AL41278</t>
+  </si>
+  <si>
+    <t>AL41279</t>
+  </si>
+  <si>
+    <t>AL41280</t>
+  </si>
+  <si>
+    <t>AL41281</t>
+  </si>
+  <si>
+    <t>AL41282</t>
+  </si>
+  <si>
+    <t>AL41283</t>
+  </si>
+  <si>
+    <t>AL41284</t>
+  </si>
+  <si>
+    <t>AL41285</t>
+  </si>
+  <si>
+    <t>AL41286</t>
+  </si>
+  <si>
+    <t>AL41287</t>
+  </si>
+  <si>
+    <t>AL41288</t>
+  </si>
+  <si>
+    <t>AL41289</t>
+  </si>
+  <si>
+    <t>AL41290</t>
+  </si>
+  <si>
+    <t>AL41291</t>
+  </si>
+  <si>
+    <t>AL41292</t>
+  </si>
+  <si>
+    <t>AL41293</t>
+  </si>
+  <si>
+    <t>AL41294</t>
+  </si>
+  <si>
+    <t>AL41295</t>
+  </si>
+  <si>
+    <t>AL41296</t>
+  </si>
+  <si>
+    <t>AL41297</t>
+  </si>
+  <si>
+    <t>AL41298</t>
+  </si>
+  <si>
+    <t>AL41299</t>
+  </si>
+  <si>
+    <t>AL41300</t>
+  </si>
+  <si>
+    <t>AL41301</t>
+  </si>
+  <si>
+    <t>AL41302</t>
+  </si>
+  <si>
+    <t>AL41303</t>
+  </si>
+  <si>
+    <t>AL41304</t>
+  </si>
+  <si>
+    <t>AL41305</t>
+  </si>
+  <si>
+    <t>AL41306</t>
+  </si>
+  <si>
+    <t>AL41307</t>
+  </si>
+  <si>
+    <t>AL41308</t>
+  </si>
+  <si>
+    <t>AL41309</t>
+  </si>
+  <si>
+    <t>AL41310</t>
+  </si>
+  <si>
+    <t>AL41311</t>
+  </si>
+  <si>
+    <t>AL41312</t>
+  </si>
+  <si>
+    <t>AL41313</t>
+  </si>
+  <si>
+    <t>AL41314</t>
+  </si>
+  <si>
+    <t>AL41315</t>
+  </si>
+  <si>
+    <t>AL41316</t>
+  </si>
+  <si>
+    <t>AL41317</t>
+  </si>
+  <si>
+    <t>AL41318</t>
+  </si>
+  <si>
+    <t>AL41319</t>
+  </si>
+  <si>
+    <t>AL41320</t>
+  </si>
+  <si>
+    <t>AL41321</t>
+  </si>
+  <si>
+    <t>AL41322</t>
+  </si>
+  <si>
+    <t>AL41324</t>
+  </si>
+  <si>
+    <t>AL41325</t>
+  </si>
+  <si>
+    <t>ALP41323</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +2012,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1648,9 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1678,8 +2372,8 @@
       <c r="A2" s="1">
         <v>48637507</v>
       </c>
-      <c r="B2" s="1">
-        <v>41096</v>
+      <c r="B2" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1692,8 +2386,8 @@
       <c r="A3" s="1">
         <v>46586634</v>
       </c>
-      <c r="B3" s="1">
-        <v>41050</v>
+      <c r="B3" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>406</v>
@@ -1706,8 +2400,8 @@
       <c r="A4" s="1">
         <v>9190607</v>
       </c>
-      <c r="B4" s="1">
-        <v>41030</v>
+      <c r="B4" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -1720,8 +2414,8 @@
       <c r="A5" s="1">
         <v>44685116</v>
       </c>
-      <c r="B5" s="1">
-        <v>41146</v>
+      <c r="B5" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>219</v>
@@ -1734,8 +2428,8 @@
       <c r="A6" s="1">
         <v>18147102</v>
       </c>
-      <c r="B6" s="1">
-        <v>41173</v>
+      <c r="B6" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>408</v>
@@ -1748,8 +2442,8 @@
       <c r="A7" s="1">
         <v>43677391</v>
       </c>
-      <c r="B7" s="1">
-        <v>41093</v>
+      <c r="B7" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>410</v>
@@ -1762,8 +2456,8 @@
       <c r="A8" s="1">
         <v>12004396</v>
       </c>
-      <c r="B8" s="1">
-        <v>41136</v>
+      <c r="B8" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>230</v>
@@ -1776,8 +2470,8 @@
       <c r="A9" s="1">
         <v>7366016</v>
       </c>
-      <c r="B9" s="1">
-        <v>41163</v>
+      <c r="B9" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>240</v>
@@ -1790,8 +2484,8 @@
       <c r="A10" s="1">
         <v>42906639</v>
       </c>
-      <c r="B10" s="1">
-        <v>41167</v>
+      <c r="B10" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>204</v>
@@ -1810,8 +2504,8 @@
       <c r="A11" s="1">
         <v>30388106</v>
       </c>
-      <c r="B11" s="1">
-        <v>41003</v>
+      <c r="B11" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -1830,8 +2524,8 @@
       <c r="A12" s="1">
         <v>41989681</v>
       </c>
-      <c r="B12" s="1">
-        <v>41069</v>
+      <c r="B12" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
@@ -1850,8 +2544,8 @@
       <c r="A13" s="1">
         <v>24682669</v>
       </c>
-      <c r="B13" s="1">
-        <v>41073</v>
+      <c r="B13" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>265</v>
@@ -1870,8 +2564,8 @@
       <c r="A14" s="1">
         <v>22330635</v>
       </c>
-      <c r="B14" s="1">
-        <v>41100</v>
+      <c r="B14" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>263</v>
@@ -1890,8 +2584,8 @@
       <c r="A15" s="1">
         <v>15427371</v>
       </c>
-      <c r="B15" s="1">
-        <v>41002</v>
+      <c r="B15" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
@@ -1910,8 +2604,8 @@
       <c r="A16" s="1">
         <v>22621912</v>
       </c>
-      <c r="B16" s="1">
-        <v>41000</v>
+      <c r="B16" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -1930,8 +2624,8 @@
       <c r="A17" s="1">
         <v>16979721</v>
       </c>
-      <c r="B17" s="1">
-        <v>41135</v>
+      <c r="B17" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1950,8 +2644,8 @@
       <c r="A18" s="1">
         <v>26084777</v>
       </c>
-      <c r="B18" s="1">
-        <v>41168</v>
+      <c r="B18" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1970,8 +2664,8 @@
       <c r="A19" s="1">
         <v>13452240</v>
       </c>
-      <c r="B19" s="1">
-        <v>41067</v>
+      <c r="B19" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>412</v>
@@ -1990,8 +2684,8 @@
       <c r="A20" s="1">
         <v>48996568</v>
       </c>
-      <c r="B20" s="1">
-        <v>41169</v>
+      <c r="B20" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>62</v>
@@ -2010,8 +2704,8 @@
       <c r="A21" s="1">
         <v>48709695</v>
       </c>
-      <c r="B21" s="1">
-        <v>41138</v>
+      <c r="B21" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>211</v>
@@ -2030,8 +2724,8 @@
       <c r="A22" s="1">
         <v>46104830</v>
       </c>
-      <c r="B22" s="1">
-        <v>41160</v>
+      <c r="B22" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -2050,8 +2744,8 @@
       <c r="A23" s="1">
         <v>17466469</v>
       </c>
-      <c r="B23" s="1">
-        <v>41121</v>
+      <c r="B23" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>253</v>
@@ -2070,8 +2764,8 @@
       <c r="A24" s="1">
         <v>31046654</v>
       </c>
-      <c r="B24" s="1">
-        <v>41110</v>
+      <c r="B24" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>272</v>
@@ -2090,8 +2784,8 @@
       <c r="A25" s="1">
         <v>49686278</v>
       </c>
-      <c r="B25" s="1">
-        <v>41164</v>
+      <c r="B25" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -2110,8 +2804,8 @@
       <c r="A26" s="1">
         <v>11935283</v>
       </c>
-      <c r="B26" s="1">
-        <v>41196</v>
+      <c r="B26" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -2130,8 +2824,8 @@
       <c r="A27" s="1">
         <v>43750049</v>
       </c>
-      <c r="B27" s="1">
-        <v>41089</v>
+      <c r="B27" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>49</v>
@@ -2150,8 +2844,8 @@
       <c r="A28" s="1">
         <v>36385416</v>
       </c>
-      <c r="B28" s="1">
-        <v>41217</v>
+      <c r="B28" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>222</v>
@@ -2170,8 +2864,8 @@
       <c r="A29" s="1">
         <v>9028700</v>
       </c>
-      <c r="B29" s="1">
-        <v>41185</v>
+      <c r="B29" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>414</v>
@@ -2190,8 +2884,8 @@
       <c r="A30" s="1">
         <v>48784498</v>
       </c>
-      <c r="B30" s="1">
-        <v>41124</v>
+      <c r="B30" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>286</v>
@@ -2210,8 +2904,8 @@
       <c r="A31" s="1">
         <v>27374218</v>
       </c>
-      <c r="B31" s="1">
-        <v>41193</v>
+      <c r="B31" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>416</v>
@@ -2230,8 +2924,8 @@
       <c r="A32" s="1">
         <v>31636157</v>
       </c>
-      <c r="B32" s="1">
-        <v>41076</v>
+      <c r="B32" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>27</v>
@@ -2250,8 +2944,8 @@
       <c r="A33" s="1">
         <v>49953301</v>
       </c>
-      <c r="B33" s="1">
-        <v>41070</v>
+      <c r="B33" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>251</v>
@@ -2270,8 +2964,8 @@
       <c r="A34" s="1">
         <v>29117970</v>
       </c>
-      <c r="B34" s="1">
-        <v>41025</v>
+      <c r="B34" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>202</v>
@@ -2290,8 +2984,8 @@
       <c r="A35" s="1">
         <v>45266483</v>
       </c>
-      <c r="B35" s="1">
-        <v>41046</v>
+      <c r="B35" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>226</v>
@@ -2310,8 +3004,8 @@
       <c r="A36" s="1">
         <v>21409081</v>
       </c>
-      <c r="B36" s="1">
-        <v>41018</v>
+      <c r="B36" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>51</v>
@@ -2330,8 +3024,8 @@
       <c r="A37" s="1">
         <v>30308657</v>
       </c>
-      <c r="B37" s="1">
-        <v>41134</v>
+      <c r="B37" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>51</v>
@@ -2350,8 +3044,8 @@
       <c r="A38" s="1">
         <v>34665895</v>
       </c>
-      <c r="B38" s="1">
-        <v>41219</v>
+      <c r="B38" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>267</v>
@@ -2370,8 +3064,8 @@
       <c r="A39" s="1">
         <v>6390630</v>
       </c>
-      <c r="B39" s="1">
-        <v>41114</v>
+      <c r="B39" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>418</v>
@@ -2390,8 +3084,8 @@
       <c r="A40" s="1">
         <v>32311568</v>
       </c>
-      <c r="B40" s="1">
-        <v>41101</v>
+      <c r="B40" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>199</v>
@@ -2410,8 +3104,8 @@
       <c r="A41" s="1">
         <v>32100255</v>
       </c>
-      <c r="B41" s="1">
-        <v>41035</v>
+      <c r="B41" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>256</v>
@@ -2430,8 +3124,8 @@
       <c r="A42" s="1">
         <v>30701387</v>
       </c>
-      <c r="B42" s="1">
-        <v>41053</v>
+      <c r="B42" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -2450,8 +3144,8 @@
       <c r="A43" s="1">
         <v>48282154</v>
       </c>
-      <c r="B43" s="1">
-        <v>41105</v>
+      <c r="B43" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -2470,8 +3164,8 @@
       <c r="A44" s="1">
         <v>15294557</v>
       </c>
-      <c r="B44" s="1">
-        <v>41200</v>
+      <c r="B44" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -2490,8 +3184,8 @@
       <c r="A45" s="1">
         <v>29722234</v>
       </c>
-      <c r="B45" s="1">
-        <v>41042</v>
+      <c r="B45" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
@@ -2504,8 +3198,8 @@
       <c r="A46" s="1">
         <v>24483666</v>
       </c>
-      <c r="B46" s="1">
-        <v>41111</v>
+      <c r="B46" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>278</v>
@@ -2518,8 +3212,8 @@
       <c r="A47" s="1">
         <v>18849012</v>
       </c>
-      <c r="B47" s="1">
-        <v>41020</v>
+      <c r="B47" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>55</v>
@@ -2532,8 +3226,8 @@
       <c r="A48" s="1">
         <v>21289686</v>
       </c>
-      <c r="B48" s="1">
-        <v>41216</v>
+      <c r="B48" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -2546,8 +3240,8 @@
       <c r="A49" s="1">
         <v>45686853</v>
       </c>
-      <c r="B49" s="1">
-        <v>41017</v>
+      <c r="B49" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>214</v>
@@ -2560,8 +3254,8 @@
       <c r="A50" s="1">
         <v>43475325</v>
       </c>
-      <c r="B50" s="1">
-        <v>41127</v>
+      <c r="B50" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
@@ -2574,8 +3268,8 @@
       <c r="A51" s="1">
         <v>30239463</v>
       </c>
-      <c r="B51" s="1">
-        <v>41186</v>
+      <c r="B51" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -2588,8 +3282,8 @@
       <c r="A52" s="1">
         <v>45399925</v>
       </c>
-      <c r="B52" s="1">
-        <v>41024</v>
+      <c r="B52" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>81</v>
@@ -2602,8 +3296,8 @@
       <c r="A53" s="1">
         <v>24844311</v>
       </c>
-      <c r="B53" s="1">
-        <v>41005</v>
+      <c r="B53" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>420</v>
@@ -2616,8 +3310,8 @@
       <c r="A54" s="1">
         <v>42555216</v>
       </c>
-      <c r="B54" s="1">
-        <v>41192</v>
+      <c r="B54" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>78</v>
@@ -2630,8 +3324,8 @@
       <c r="A55" s="1">
         <v>46743067</v>
       </c>
-      <c r="B55" s="1">
-        <v>41120</v>
+      <c r="B55" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>225</v>
@@ -2644,8 +3338,8 @@
       <c r="A56" s="1">
         <v>45145072</v>
       </c>
-      <c r="B56" s="1">
-        <v>41109</v>
+      <c r="B56" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>67</v>
@@ -2658,8 +3352,8 @@
       <c r="A57" s="1">
         <v>12487810</v>
       </c>
-      <c r="B57" s="1">
-        <v>41171</v>
+      <c r="B57" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>67</v>
@@ -2672,8 +3366,8 @@
       <c r="A58" s="1">
         <v>34660087</v>
       </c>
-      <c r="B58" s="1">
-        <v>41013</v>
+      <c r="B58" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>277</v>
@@ -2686,8 +3380,8 @@
       <c r="A59" s="1">
         <v>27721420</v>
       </c>
-      <c r="B59" s="1">
-        <v>41055</v>
+      <c r="B59" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>243</v>
@@ -2700,8 +3394,8 @@
       <c r="A60" s="1">
         <v>33031532</v>
       </c>
-      <c r="B60" s="1">
-        <v>41006</v>
+      <c r="B60" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>209</v>
@@ -2714,8 +3408,8 @@
       <c r="A61" s="1">
         <v>33192449</v>
       </c>
-      <c r="B61" s="1">
-        <v>41054</v>
+      <c r="B61" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>259</v>
@@ -2728,8 +3422,8 @@
       <c r="A62" s="1">
         <v>43348668</v>
       </c>
-      <c r="B62" s="1">
-        <v>41097</v>
+      <c r="B62" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>244</v>
@@ -2742,8 +3436,8 @@
       <c r="A63" s="1">
         <v>38157891</v>
       </c>
-      <c r="B63" s="1">
-        <v>41220</v>
+      <c r="B63" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>98</v>
@@ -2756,8 +3450,8 @@
       <c r="A64" s="1">
         <v>16532140</v>
       </c>
-      <c r="B64" s="1">
-        <v>41123</v>
+      <c r="B64" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>232</v>
@@ -2770,8 +3464,8 @@
       <c r="A65" s="1">
         <v>42837826</v>
       </c>
-      <c r="B65" s="1">
-        <v>41023</v>
+      <c r="B65" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>271</v>
@@ -2784,8 +3478,8 @@
       <c r="A66" s="1">
         <v>38474198</v>
       </c>
-      <c r="B66" s="1">
-        <v>41026</v>
+      <c r="B66" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>247</v>
@@ -2798,8 +3492,8 @@
       <c r="A67" s="1">
         <v>12346991</v>
       </c>
-      <c r="B67" s="1">
-        <v>41091</v>
+      <c r="B67" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>60</v>
@@ -2812,8 +3506,8 @@
       <c r="A68" s="1">
         <v>35406343</v>
       </c>
-      <c r="B68" s="1">
-        <v>41184</v>
+      <c r="B68" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>60</v>
@@ -2826,8 +3520,8 @@
       <c r="A69" s="1">
         <v>19459406</v>
       </c>
-      <c r="B69" s="1">
-        <v>41224</v>
+      <c r="B69" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -2840,8 +3534,8 @@
       <c r="A70" s="1">
         <v>49708703</v>
       </c>
-      <c r="B70" s="1">
-        <v>41033</v>
+      <c r="B70" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>19</v>
@@ -2854,8 +3548,8 @@
       <c r="A71" s="1">
         <v>37469970</v>
       </c>
-      <c r="B71" s="1">
-        <v>41202</v>
+      <c r="B71" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -2868,8 +3562,8 @@
       <c r="A72" s="1">
         <v>39549507</v>
       </c>
-      <c r="B72" s="1">
-        <v>41161</v>
+      <c r="B72" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>94</v>
@@ -2882,8 +3576,8 @@
       <c r="A73" s="1">
         <v>36959025</v>
       </c>
-      <c r="B73" s="1">
-        <v>41179</v>
+      <c r="B73" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>94</v>
@@ -2896,8 +3590,8 @@
       <c r="A74" s="1">
         <v>16309654</v>
       </c>
-      <c r="B74" s="1">
-        <v>41205</v>
+      <c r="B74" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>203</v>
@@ -2910,8 +3604,8 @@
       <c r="A75" s="1">
         <v>18529843</v>
       </c>
-      <c r="B75" s="1">
-        <v>41047</v>
+      <c r="B75" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>229</v>
@@ -2924,8 +3618,8 @@
       <c r="A76" s="1">
         <v>25772496</v>
       </c>
-      <c r="B76" s="1">
-        <v>41154</v>
+      <c r="B76" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>422</v>
@@ -2938,8 +3632,8 @@
       <c r="A77" s="1">
         <v>26818620</v>
       </c>
-      <c r="B77" s="1">
-        <v>41119</v>
+      <c r="B77" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>93</v>
@@ -2952,8 +3646,8 @@
       <c r="A78" s="1">
         <v>23159573</v>
       </c>
-      <c r="B78" s="1">
-        <v>41130</v>
+      <c r="B78" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>373</v>
@@ -2966,8 +3660,8 @@
       <c r="A79" s="1">
         <v>35283269</v>
       </c>
-      <c r="B79" s="1">
-        <v>41039</v>
+      <c r="B79" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>374</v>
@@ -2980,8 +3674,8 @@
       <c r="A80" s="1">
         <v>6875664</v>
       </c>
-      <c r="B80" s="1">
-        <v>41125</v>
+      <c r="B80" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>269</v>
@@ -2994,8 +3688,8 @@
       <c r="A81" s="1">
         <v>26587375</v>
       </c>
-      <c r="B81" s="1">
-        <v>41137</v>
+      <c r="B81" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>82</v>
@@ -3008,8 +3702,8 @@
       <c r="A82" s="1">
         <v>48772372</v>
       </c>
-      <c r="B82" s="1">
-        <v>41155</v>
+      <c r="B82" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>217</v>
@@ -3023,8 +3717,8 @@
       <c r="A83" s="1">
         <v>30776213</v>
       </c>
-      <c r="B83" s="1">
-        <v>41228</v>
+      <c r="B83" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>274</v>
@@ -3037,8 +3731,8 @@
       <c r="A84" s="1">
         <v>48099435</v>
       </c>
-      <c r="B84" s="1">
-        <v>41139</v>
+      <c r="B84" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>252</v>
@@ -3051,8 +3745,8 @@
       <c r="A85" s="1">
         <v>18780604</v>
       </c>
-      <c r="B85" s="1">
-        <v>41104</v>
+      <c r="B85" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>207</v>
@@ -3065,8 +3759,8 @@
       <c r="A86" s="1">
         <v>49867796</v>
       </c>
-      <c r="B86" s="1">
-        <v>41211</v>
+      <c r="B86" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>22</v>
@@ -3079,8 +3773,8 @@
       <c r="A87" s="1">
         <v>7029267</v>
       </c>
-      <c r="B87" s="1">
-        <v>41031</v>
+      <c r="B87" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>46</v>
@@ -3093,8 +3787,8 @@
       <c r="A88" s="1">
         <v>14669989</v>
       </c>
-      <c r="B88" s="1">
-        <v>41226</v>
+      <c r="B88" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>239</v>
@@ -3107,8 +3801,8 @@
       <c r="A89" s="1">
         <v>15307164</v>
       </c>
-      <c r="B89" s="1">
-        <v>41074</v>
+      <c r="B89" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>221</v>
@@ -3121,8 +3815,8 @@
       <c r="A90" s="1">
         <v>9478391</v>
       </c>
-      <c r="B90" s="1">
-        <v>41068</v>
+      <c r="B90" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>241</v>
@@ -3135,8 +3829,8 @@
       <c r="A91" s="1">
         <v>26065721</v>
       </c>
-      <c r="B91" s="1">
-        <v>41056</v>
+      <c r="B91" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -3149,8 +3843,8 @@
       <c r="A92" s="1">
         <v>36503934</v>
       </c>
-      <c r="B92" s="1">
-        <v>41166</v>
+      <c r="B92" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>257</v>
@@ -3163,8 +3857,8 @@
       <c r="A93" s="1">
         <v>46508041</v>
       </c>
-      <c r="B93" s="1">
-        <v>41099</v>
+      <c r="B93" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>58</v>
@@ -3177,8 +3871,8 @@
       <c r="A94" s="1">
         <v>48459517</v>
       </c>
-      <c r="B94" s="1">
-        <v>41012</v>
+      <c r="B94" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>72</v>
@@ -3191,8 +3885,8 @@
       <c r="A95" s="1">
         <v>11680657</v>
       </c>
-      <c r="B95" s="1">
-        <v>41004</v>
+      <c r="B95" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>375</v>
@@ -3205,8 +3899,8 @@
       <c r="A96" s="1">
         <v>10527975</v>
       </c>
-      <c r="B96" s="1">
-        <v>41052</v>
+      <c r="B96" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>63</v>
@@ -3219,8 +3913,8 @@
       <c r="A97" s="1">
         <v>13320912</v>
       </c>
-      <c r="B97" s="1">
-        <v>41195</v>
+      <c r="B97" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>275</v>
@@ -3233,8 +3927,8 @@
       <c r="A98" s="1">
         <v>21001931</v>
       </c>
-      <c r="B98" s="1">
-        <v>41206</v>
+      <c r="B98" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -3247,8 +3941,8 @@
       <c r="A99" s="1">
         <v>29820020</v>
       </c>
-      <c r="B99" s="1">
-        <v>41107</v>
+      <c r="B99" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>57</v>
@@ -3261,8 +3955,8 @@
       <c r="A100" s="1">
         <v>31082253</v>
       </c>
-      <c r="B100" s="1">
-        <v>41209</v>
+      <c r="B100" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>47</v>
@@ -3275,8 +3969,8 @@
       <c r="A101" s="1">
         <v>49176547</v>
       </c>
-      <c r="B101" s="1">
-        <v>41203</v>
+      <c r="B101" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>205</v>
@@ -3289,8 +3983,8 @@
       <c r="A102" s="1">
         <v>22905831</v>
       </c>
-      <c r="B102" s="1">
-        <v>41128</v>
+      <c r="B102" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>218</v>
@@ -3303,8 +3997,8 @@
       <c r="A103" s="1">
         <v>23521654</v>
       </c>
-      <c r="B103" s="1">
-        <v>41038</v>
+      <c r="B103" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>220</v>
@@ -3317,8 +4011,8 @@
       <c r="A104" s="1">
         <v>7528332</v>
       </c>
-      <c r="B104" s="1">
-        <v>41133</v>
+      <c r="B104" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>92</v>
@@ -3331,8 +4025,8 @@
       <c r="A105" s="1">
         <v>16835660</v>
       </c>
-      <c r="B105" s="1">
-        <v>41080</v>
+      <c r="B105" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>216</v>
@@ -3345,8 +4039,8 @@
       <c r="A106" s="1">
         <v>13084195</v>
       </c>
-      <c r="B106" s="1">
-        <v>41027</v>
+      <c r="B106" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>236</v>
@@ -3359,8 +4053,8 @@
       <c r="A107" s="1">
         <v>26067341</v>
       </c>
-      <c r="B107" s="1">
-        <v>41115</v>
+      <c r="B107" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>206</v>
@@ -3373,8 +4067,8 @@
       <c r="A108" s="1">
         <v>27612120</v>
       </c>
-      <c r="B108" s="1">
-        <v>41008</v>
+      <c r="B108" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>36</v>
@@ -3387,8 +4081,8 @@
       <c r="A109" s="1">
         <v>46067823</v>
       </c>
-      <c r="B109" s="1">
-        <v>41208</v>
+      <c r="B109" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>285</v>
@@ -3401,8 +4095,8 @@
       <c r="A110" s="1">
         <v>8544513</v>
       </c>
-      <c r="B110" s="1">
-        <v>41051</v>
+      <c r="B110" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>95</v>
@@ -3415,8 +4109,8 @@
       <c r="A111" s="1">
         <v>36097579</v>
       </c>
-      <c r="B111" s="1">
-        <v>41204</v>
+      <c r="B111" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>254</v>
@@ -3429,8 +4123,8 @@
       <c r="A112" s="1">
         <v>14523329</v>
       </c>
-      <c r="B112" s="1">
-        <v>41218</v>
+      <c r="B112" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>212</v>
@@ -3443,8 +4137,8 @@
       <c r="A113" s="1">
         <v>32614691</v>
       </c>
-      <c r="B113" s="1">
-        <v>41229</v>
+      <c r="B113" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>212</v>
@@ -3457,8 +4151,8 @@
       <c r="A114" s="1">
         <v>28074424</v>
       </c>
-      <c r="B114" s="1">
-        <v>41058</v>
+      <c r="B114" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>13</v>
@@ -3471,8 +4165,8 @@
       <c r="A115" s="1">
         <v>40646382</v>
       </c>
-      <c r="B115" s="1">
-        <v>41126</v>
+      <c r="B115" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>13</v>
@@ -3485,8 +4179,8 @@
       <c r="A116" s="1">
         <v>45293197</v>
       </c>
-      <c r="B116" s="1">
-        <v>41190</v>
+      <c r="B116" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>234</v>
@@ -3499,8 +4193,8 @@
       <c r="A117" s="1">
         <v>27781028</v>
       </c>
-      <c r="B117" s="1">
-        <v>41007</v>
+      <c r="B117" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>258</v>
@@ -3513,8 +4207,8 @@
       <c r="A118" s="1">
         <v>28726855</v>
       </c>
-      <c r="B118" s="1">
-        <v>41118</v>
+      <c r="B118" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>88</v>
@@ -3527,8 +4221,8 @@
       <c r="A119" s="1">
         <v>31524309</v>
       </c>
-      <c r="B119" s="1">
-        <v>41090</v>
+      <c r="B119" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>280</v>
@@ -3541,8 +4235,8 @@
       <c r="A120" s="1">
         <v>21060218</v>
       </c>
-      <c r="B120" s="1">
-        <v>41176</v>
+      <c r="B120" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>30</v>
@@ -3555,8 +4249,8 @@
       <c r="A121" s="1">
         <v>31975106</v>
       </c>
-      <c r="B121" s="1">
-        <v>41188</v>
+      <c r="B121" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>4</v>
@@ -3569,8 +4263,8 @@
       <c r="A122" s="1">
         <v>40319991</v>
       </c>
-      <c r="B122" s="1">
-        <v>41199</v>
+      <c r="B122" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>276</v>
@@ -3583,8 +4277,8 @@
       <c r="A123" s="1">
         <v>22330766</v>
       </c>
-      <c r="B123" s="1">
-        <v>41153</v>
+      <c r="B123" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
@@ -3597,8 +4291,8 @@
       <c r="A124" s="1">
         <v>21106410</v>
       </c>
-      <c r="B124" s="1">
-        <v>41191</v>
+      <c r="B124" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>238</v>
@@ -3611,8 +4305,8 @@
       <c r="A125" s="1">
         <v>13815202</v>
       </c>
-      <c r="B125" s="1">
-        <v>41183</v>
+      <c r="B125" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>28</v>
@@ -3625,8 +4319,8 @@
       <c r="A126" s="1">
         <v>47093288</v>
       </c>
-      <c r="B126" s="1">
-        <v>41040</v>
+      <c r="B126" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>79</v>
@@ -3639,8 +4333,8 @@
       <c r="A127" s="1">
         <v>25376667</v>
       </c>
-      <c r="B127" s="1">
-        <v>41087</v>
+      <c r="B127" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>35</v>
@@ -3653,8 +4347,8 @@
       <c r="A128" s="1">
         <v>42651808</v>
       </c>
-      <c r="B128" s="1">
-        <v>41015</v>
+      <c r="B128" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>86</v>
@@ -3667,8 +4361,8 @@
       <c r="A129" s="1">
         <v>41420760</v>
       </c>
-      <c r="B129" s="1">
-        <v>41021</v>
+      <c r="B129" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>268</v>
@@ -3681,8 +4375,8 @@
       <c r="A130" s="1">
         <v>21680638</v>
       </c>
-      <c r="B130" s="1">
-        <v>41071</v>
+      <c r="B130" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>282</v>
@@ -3695,8 +4389,8 @@
       <c r="A131" s="1">
         <v>6038948</v>
       </c>
-      <c r="B131" s="1">
-        <v>41106</v>
+      <c r="B131" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>64</v>
@@ -3709,8 +4403,8 @@
       <c r="A132" s="1">
         <v>34567537</v>
       </c>
-      <c r="B132" s="1">
-        <v>41103</v>
+      <c r="B132" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>66</v>
@@ -3723,8 +4417,8 @@
       <c r="A133" s="1">
         <v>48837147</v>
       </c>
-      <c r="B133" s="1">
-        <v>41092</v>
+      <c r="B133" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>31</v>
@@ -3737,8 +4431,8 @@
       <c r="A134" s="1">
         <v>8388803</v>
       </c>
-      <c r="B134" s="1">
-        <v>41182</v>
+      <c r="B134" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>31</v>
@@ -3751,8 +4445,8 @@
       <c r="A135" s="1">
         <v>13556299</v>
       </c>
-      <c r="B135" s="1">
-        <v>41084</v>
+      <c r="B135" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>255</v>
@@ -3765,8 +4459,8 @@
       <c r="A136" s="1">
         <v>11891058</v>
       </c>
-      <c r="B136" s="1">
-        <v>41189</v>
+      <c r="B136" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>75</v>
@@ -3779,8 +4473,8 @@
       <c r="A137" s="1">
         <v>9612128</v>
       </c>
-      <c r="B137" s="1">
-        <v>41187</v>
+      <c r="B137" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>235</v>
@@ -3793,8 +4487,8 @@
       <c r="A138" s="1">
         <v>21527247</v>
       </c>
-      <c r="B138" s="1">
-        <v>41116</v>
+      <c r="B138" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
@@ -3807,8 +4501,8 @@
       <c r="A139" s="1">
         <v>34541073</v>
       </c>
-      <c r="B139" s="1">
-        <v>41145</v>
+      <c r="B139" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>43</v>
@@ -3821,8 +4515,8 @@
       <c r="A140" s="1">
         <v>34969826</v>
       </c>
-      <c r="B140" s="1">
-        <v>41158</v>
+      <c r="B140" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>45</v>
@@ -3835,8 +4529,8 @@
       <c r="A141" s="1">
         <v>49207332</v>
       </c>
-      <c r="B141" s="1">
-        <v>41147</v>
+      <c r="B141" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>376</v>
@@ -3849,8 +4543,8 @@
       <c r="A142" s="1">
         <v>32484160</v>
       </c>
-      <c r="B142" s="1">
-        <v>41148</v>
+      <c r="B142" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>377</v>
@@ -3863,8 +4557,8 @@
       <c r="A143" s="1">
         <v>23808848</v>
       </c>
-      <c r="B143" s="1">
-        <v>41048</v>
+      <c r="B143" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>262</v>
@@ -3877,8 +4571,8 @@
       <c r="A144" s="1">
         <v>48882260</v>
       </c>
-      <c r="B144" s="1">
-        <v>41077</v>
+      <c r="B144" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>284</v>
@@ -3891,8 +4585,8 @@
       <c r="A145" s="1">
         <v>16244592</v>
       </c>
-      <c r="B145" s="1">
-        <v>41162</v>
+      <c r="B145" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>201</v>
@@ -3905,8 +4599,8 @@
       <c r="A146" s="1">
         <v>44888501</v>
       </c>
-      <c r="B146" s="1">
-        <v>41113</v>
+      <c r="B146" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>378</v>
@@ -3919,8 +4613,8 @@
       <c r="A147" s="1">
         <v>24556744</v>
       </c>
-      <c r="B147" s="1">
-        <v>41016</v>
+      <c r="B147" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>11</v>
@@ -3933,8 +4627,8 @@
       <c r="A148" s="1">
         <v>10507943</v>
       </c>
-      <c r="B148" s="1">
-        <v>41059</v>
+      <c r="B148" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>11</v>
@@ -3947,8 +4641,8 @@
       <c r="A149" s="1">
         <v>45757180</v>
       </c>
-      <c r="B149" s="1">
-        <v>41079</v>
+      <c r="B149" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>41</v>
@@ -3961,8 +4655,8 @@
       <c r="A150" s="1">
         <v>31400914</v>
       </c>
-      <c r="B150" s="1">
-        <v>41212</v>
+      <c r="B150" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>273</v>
@@ -3975,8 +4669,8 @@
       <c r="A151" s="1">
         <v>18843297</v>
       </c>
-      <c r="B151" s="1">
-        <v>41174</v>
+      <c r="B151" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>223</v>
@@ -3989,8 +4683,8 @@
       <c r="A152" s="1">
         <v>7905790</v>
       </c>
-      <c r="B152" s="1">
-        <v>41215</v>
+      <c r="B152" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>15</v>
@@ -4003,8 +4697,8 @@
       <c r="A153" s="1">
         <v>33431495</v>
       </c>
-      <c r="B153" s="1">
-        <v>41159</v>
+      <c r="B153" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>21</v>
@@ -4017,8 +4711,8 @@
       <c r="A154" s="1">
         <v>15651752</v>
       </c>
-      <c r="B154" s="1">
-        <v>41144</v>
+      <c r="B154" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>248</v>
@@ -4031,8 +4725,8 @@
       <c r="A155" s="1">
         <v>46287308</v>
       </c>
-      <c r="B155" s="1">
-        <v>41152</v>
+      <c r="B155" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>380</v>
@@ -4045,8 +4739,8 @@
       <c r="A156" s="1">
         <v>34755891</v>
       </c>
-      <c r="B156" s="1">
-        <v>41065</v>
+      <c r="B156" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>80</v>
@@ -4059,8 +4753,8 @@
       <c r="A157" s="1">
         <v>45968273</v>
       </c>
-      <c r="B157" s="1">
-        <v>41085</v>
+      <c r="B157" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>80</v>
@@ -4073,8 +4767,8 @@
       <c r="A158" s="1">
         <v>22047023</v>
       </c>
-      <c r="B158" s="1">
-        <v>41170</v>
+      <c r="B158" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>383</v>
@@ -4087,8 +4781,8 @@
       <c r="A159" s="1">
         <v>23141185</v>
       </c>
-      <c r="B159" s="1">
-        <v>41117</v>
+      <c r="B159" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>283</v>
@@ -4101,8 +4795,8 @@
       <c r="A160" s="1">
         <v>40338231</v>
       </c>
-      <c r="B160" s="1">
-        <v>41142</v>
+      <c r="B160" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>250</v>
@@ -4115,8 +4809,8 @@
       <c r="A161" s="1">
         <v>20699148</v>
       </c>
-      <c r="B161" s="1">
-        <v>41165</v>
+      <c r="B161" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>33</v>
@@ -4129,8 +4823,8 @@
       <c r="A162" s="1">
         <v>40274537</v>
       </c>
-      <c r="B162" s="1">
-        <v>41194</v>
+      <c r="B162" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>33</v>
@@ -4143,8 +4837,8 @@
       <c r="A163" s="1">
         <v>14150114</v>
       </c>
-      <c r="B163" s="1">
-        <v>41132</v>
+      <c r="B163" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>73</v>
@@ -4157,8 +4851,8 @@
       <c r="A164" s="1">
         <v>40817811</v>
       </c>
-      <c r="B164" s="1">
-        <v>41180</v>
+      <c r="B164" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>52</v>
@@ -4171,8 +4865,8 @@
       <c r="A165" s="1">
         <v>14597246</v>
       </c>
-      <c r="B165" s="1">
-        <v>41081</v>
+      <c r="B165" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>228</v>
@@ -4185,8 +4879,8 @@
       <c r="A166" s="1">
         <v>33124056</v>
       </c>
-      <c r="B166" s="1">
-        <v>41175</v>
+      <c r="B166" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>228</v>
@@ -4199,8 +4893,8 @@
       <c r="A167" s="1">
         <v>34224227</v>
       </c>
-      <c r="B167" s="1">
-        <v>41022</v>
+      <c r="B167" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>266</v>
@@ -4213,8 +4907,8 @@
       <c r="A168" s="1">
         <v>21111049</v>
       </c>
-      <c r="B168" s="1">
-        <v>41029</v>
+      <c r="B168" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>18</v>
@@ -4227,8 +4921,8 @@
       <c r="A169" s="1">
         <v>12821197</v>
       </c>
-      <c r="B169" s="1">
-        <v>41063</v>
+      <c r="B169" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>386</v>
@@ -4241,8 +4935,8 @@
       <c r="A170" s="1">
         <v>47537619</v>
       </c>
-      <c r="B170" s="1">
-        <v>41227</v>
+      <c r="B170" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>245</v>
@@ -4255,8 +4949,8 @@
       <c r="A171" s="1">
         <v>12693189</v>
       </c>
-      <c r="B171" s="1">
-        <v>41149</v>
+      <c r="B171" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>388</v>
@@ -4269,8 +4963,8 @@
       <c r="A172" s="1">
         <v>28423363</v>
       </c>
-      <c r="B172" s="1">
-        <v>41122</v>
+      <c r="B172" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>50</v>
@@ -4283,8 +4977,8 @@
       <c r="A173" s="1">
         <v>27150078</v>
       </c>
-      <c r="B173" s="1">
-        <v>41151</v>
+      <c r="B173" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>227</v>
@@ -4297,8 +4991,8 @@
       <c r="A174" s="1">
         <v>8874625</v>
       </c>
-      <c r="B174" s="1">
-        <v>41078</v>
+      <c r="B174" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>224</v>
@@ -4311,8 +5005,8 @@
       <c r="A175" s="1">
         <v>13772878</v>
       </c>
-      <c r="B175" s="1">
-        <v>41210</v>
+      <c r="B175" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>224</v>
@@ -4325,8 +5019,8 @@
       <c r="A176" s="1">
         <v>30943501</v>
       </c>
-      <c r="B176" s="1">
-        <v>41061</v>
+      <c r="B176" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>84</v>
@@ -4339,8 +5033,8 @@
       <c r="A177" s="1">
         <v>25018737</v>
       </c>
-      <c r="B177" s="1">
-        <v>41086</v>
+      <c r="B177" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>213</v>
@@ -4353,8 +5047,8 @@
       <c r="A178" s="1">
         <v>9971350</v>
       </c>
-      <c r="B178" s="1">
-        <v>41108</v>
+      <c r="B178" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>40</v>
@@ -4367,8 +5061,8 @@
       <c r="A179" s="1">
         <v>23049612</v>
       </c>
-      <c r="B179" s="1">
-        <v>41010</v>
+      <c r="B179" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>200</v>
@@ -4381,8 +5075,8 @@
       <c r="A180" s="1">
         <v>38627621</v>
       </c>
-      <c r="B180" s="1">
-        <v>41156</v>
+      <c r="B180" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>215</v>
@@ -4395,8 +5089,8 @@
       <c r="A181" s="1">
         <v>12148427</v>
       </c>
-      <c r="B181" s="1">
-        <v>41064</v>
+      <c r="B181" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>38</v>
@@ -4409,8 +5103,8 @@
       <c r="A182" s="1">
         <v>22562138</v>
       </c>
-      <c r="B182" s="1">
-        <v>41157</v>
+      <c r="B182" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>279</v>
@@ -4423,8 +5117,8 @@
       <c r="A183" s="1">
         <v>46294563</v>
       </c>
-      <c r="B183" s="1">
-        <v>41011</v>
+      <c r="B183" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>390</v>
@@ -4437,8 +5131,8 @@
       <c r="A184" s="1">
         <v>7845681</v>
       </c>
-      <c r="B184" s="1">
-        <v>41062</v>
+      <c r="B184" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>71</v>
@@ -4451,8 +5145,8 @@
       <c r="A185" s="1">
         <v>8647566</v>
       </c>
-      <c r="B185" s="1">
-        <v>41140</v>
+      <c r="B185" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>392</v>
@@ -4465,8 +5159,8 @@
       <c r="A186" s="1">
         <v>11604323</v>
       </c>
-      <c r="B186" s="1">
-        <v>41082</v>
+      <c r="B186" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>54</v>
@@ -4479,8 +5173,8 @@
       <c r="A187" s="1">
         <v>21717906</v>
       </c>
-      <c r="B187" s="1">
-        <v>41150</v>
+      <c r="B187" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>59</v>
@@ -4493,8 +5187,8 @@
       <c r="A188" s="1">
         <v>8726399</v>
       </c>
-      <c r="B188" s="1">
-        <v>41141</v>
+      <c r="B188" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>394</v>
@@ -4507,8 +5201,8 @@
       <c r="A189" s="1">
         <v>26275883</v>
       </c>
-      <c r="B189" s="1">
-        <v>41198</v>
+      <c r="B189" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>246</v>
@@ -4521,8 +5215,8 @@
       <c r="A190" s="1">
         <v>37824311</v>
       </c>
-      <c r="B190" s="1">
-        <v>41177</v>
+      <c r="B190" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>396</v>
@@ -4535,8 +5229,8 @@
       <c r="A191" s="1">
         <v>45843775</v>
       </c>
-      <c r="B191" s="1">
-        <v>41178</v>
+      <c r="B191" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>396</v>
@@ -4549,8 +5243,8 @@
       <c r="A192" s="1">
         <v>44060633</v>
       </c>
-      <c r="B192" s="1">
-        <v>41049</v>
+      <c r="B192" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
@@ -4563,8 +5257,8 @@
       <c r="A193" s="1">
         <v>47835848</v>
       </c>
-      <c r="B193" s="1">
-        <v>41214</v>
+      <c r="B193" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>16</v>
@@ -4577,8 +5271,8 @@
       <c r="A194" s="1">
         <v>40102196</v>
       </c>
-      <c r="B194" s="1">
-        <v>41131</v>
+      <c r="B194" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>399</v>
@@ -4591,8 +5285,8 @@
       <c r="A195" s="1">
         <v>41288968</v>
       </c>
-      <c r="B195" s="1">
-        <v>41197</v>
+      <c r="B195" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>29</v>
@@ -4605,8 +5299,8 @@
       <c r="A196" s="1">
         <v>7949419</v>
       </c>
-      <c r="B196" s="1">
-        <v>41044</v>
+      <c r="B196" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>85</v>
@@ -4619,8 +5313,8 @@
       <c r="A197" s="1">
         <v>29770639</v>
       </c>
-      <c r="B197" s="1">
-        <v>41213</v>
+      <c r="B197" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>70</v>
@@ -4633,8 +5327,8 @@
       <c r="A198" s="1">
         <v>25644254</v>
       </c>
-      <c r="B198" s="1">
-        <v>41041</v>
+      <c r="B198" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>260</v>
@@ -4647,8 +5341,8 @@
       <c r="A199" s="1">
         <v>25933535</v>
       </c>
-      <c r="B199" s="1">
-        <v>41057</v>
+      <c r="B199" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>231</v>
@@ -4661,8 +5355,8 @@
       <c r="A200" s="1">
         <v>8553228</v>
       </c>
-      <c r="B200" s="1">
-        <v>41060</v>
+      <c r="B200" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>231</v>
@@ -4675,8 +5369,8 @@
       <c r="A201" s="1">
         <v>42720207</v>
       </c>
-      <c r="B201" s="1">
-        <v>41037</v>
+      <c r="B201" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>91</v>
@@ -4689,8 +5383,8 @@
       <c r="A202" s="1">
         <v>43904374</v>
       </c>
-      <c r="B202" s="1">
-        <v>41201</v>
+      <c r="B202" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>237</v>
@@ -4703,8 +5397,8 @@
       <c r="A203" s="1">
         <v>6986876</v>
       </c>
-      <c r="B203" s="1">
-        <v>41001</v>
+      <c r="B203" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>48</v>
@@ -4717,8 +5411,8 @@
       <c r="A204" s="1">
         <v>45575547</v>
       </c>
-      <c r="B204" s="1">
-        <v>41207</v>
+      <c r="B204" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>87</v>
@@ -4731,8 +5425,8 @@
       <c r="A205" s="1">
         <v>36467874</v>
       </c>
-      <c r="B205" s="1">
-        <v>41032</v>
+      <c r="B205" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>242</v>
@@ -4745,8 +5439,8 @@
       <c r="A206" s="1">
         <v>8258764</v>
       </c>
-      <c r="B206" s="1">
-        <v>41075</v>
+      <c r="B206" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>401</v>
@@ -4759,8 +5453,8 @@
       <c r="A207" s="1">
         <v>41565942</v>
       </c>
-      <c r="B207" s="1">
-        <v>41102</v>
+      <c r="B207" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>264</v>
@@ -4773,8 +5467,8 @@
       <c r="A208" s="1">
         <v>32277550</v>
       </c>
-      <c r="B208" s="1">
-        <v>41143</v>
+      <c r="B208" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>65</v>
@@ -4787,8 +5481,8 @@
       <c r="A209" s="1">
         <v>30039298</v>
       </c>
-      <c r="B209" s="1">
-        <v>41014</v>
+      <c r="B209" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>208</v>
@@ -4801,8 +5495,8 @@
       <c r="A210" s="1">
         <v>38898965</v>
       </c>
-      <c r="B210" s="1">
-        <v>41129</v>
+      <c r="B210" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>53</v>
@@ -4815,8 +5509,8 @@
       <c r="A211" s="1">
         <v>9568854</v>
       </c>
-      <c r="B211" s="1">
-        <v>41098</v>
+      <c r="B211" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>233</v>
@@ -4829,8 +5523,8 @@
       <c r="A212" s="1">
         <v>49671795</v>
       </c>
-      <c r="B212" s="1">
-        <v>41112</v>
+      <c r="B212" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>210</v>
@@ -4843,8 +5537,8 @@
       <c r="A213" s="1">
         <v>16303341</v>
       </c>
-      <c r="B213" s="1">
-        <v>41036</v>
+      <c r="B213" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>25</v>
@@ -4857,8 +5551,8 @@
       <c r="A214" s="1">
         <v>19266093</v>
       </c>
-      <c r="B214" s="1">
-        <v>41088</v>
+      <c r="B214" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>97</v>
@@ -4871,8 +5565,8 @@
       <c r="A215" s="1">
         <v>23014472</v>
       </c>
-      <c r="B215" s="1">
-        <v>41223</v>
+      <c r="B215" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>97</v>
@@ -4885,8 +5579,8 @@
       <c r="A216" s="1">
         <v>41100921</v>
       </c>
-      <c r="B216" s="1">
-        <v>41045</v>
+      <c r="B216" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>74</v>
@@ -4899,8 +5593,8 @@
       <c r="A217" s="1">
         <v>44786239</v>
       </c>
-      <c r="B217" s="1">
-        <v>41225</v>
+      <c r="B217" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>74</v>
@@ -4913,8 +5607,8 @@
       <c r="A218" s="1">
         <v>16968661</v>
       </c>
-      <c r="B218" s="1">
-        <v>41034</v>
+      <c r="B218" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>198</v>
@@ -4927,8 +5621,8 @@
       <c r="A219" s="1">
         <v>37404149</v>
       </c>
-      <c r="B219" s="1">
-        <v>41028</v>
+      <c r="B219" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>90</v>
@@ -4941,8 +5635,8 @@
       <c r="A220" s="1">
         <v>20445652</v>
       </c>
-      <c r="B220" s="1">
-        <v>41094</v>
+      <c r="B220" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>89</v>
@@ -4955,8 +5649,8 @@
       <c r="A221" s="1">
         <v>30607549</v>
       </c>
-      <c r="B221" s="1">
-        <v>41083</v>
+      <c r="B221" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>24</v>
@@ -4969,8 +5663,8 @@
       <c r="A222" s="1">
         <v>17613236</v>
       </c>
-      <c r="B222" s="1">
-        <v>41019</v>
+      <c r="B222" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>261</v>
@@ -4983,8 +5677,8 @@
       <c r="A223" s="1">
         <v>31491848</v>
       </c>
-      <c r="B223" s="1">
-        <v>41222</v>
+      <c r="B223" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>110</v>
@@ -4997,8 +5691,8 @@
       <c r="A224" s="1">
         <v>6691125</v>
       </c>
-      <c r="B224" s="1">
-        <v>41043</v>
+      <c r="B224" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>270</v>
@@ -5011,8 +5705,8 @@
       <c r="A225" s="1">
         <v>48725746</v>
       </c>
-      <c r="B225" s="1">
-        <v>41095</v>
+      <c r="B225" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>61</v>
@@ -5025,8 +5719,8 @@
       <c r="A226" s="1">
         <v>17524543</v>
       </c>
-      <c r="B226" s="1">
-        <v>41221</v>
+      <c r="B226" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>20</v>
@@ -5039,8 +5733,8 @@
       <c r="A227" s="1">
         <v>19255872</v>
       </c>
-      <c r="B227" s="1">
-        <v>41009</v>
+      <c r="B227" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>281</v>
@@ -5053,8 +5747,8 @@
       <c r="A228" s="1">
         <v>33285501</v>
       </c>
-      <c r="B228" s="1">
-        <v>41181</v>
+      <c r="B228" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>99</v>
@@ -5067,8 +5761,8 @@
       <c r="A229" s="1">
         <v>25704075</v>
       </c>
-      <c r="B229" s="1">
-        <v>41066</v>
+      <c r="B229" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>403</v>
@@ -5079,10 +5773,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>49914939</v>
-      </c>
-      <c r="B230" s="1">
-        <v>41172</v>
+        <v>4939</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>249</v>
@@ -5095,8 +5789,8 @@
       <c r="A231" s="1">
         <v>25159132</v>
       </c>
-      <c r="B231" s="1">
-        <v>41072</v>
+      <c r="B231" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>69</v>
@@ -5109,6 +5803,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D231">
     <sortCondition ref="C2:C231"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ArchivosParaPruebas/AlumnosImportacionMasiva.xlsx
+++ b/ArchivosParaPruebas/AlumnosImportacionMasiva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\ArchivosParaPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89488A79-276B-4429-9673-EE5D07D264E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E6CAC4-59EB-45D2-B3FD-E27CBB0DC794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,7 +1992,7 @@
     <t>AL41325</t>
   </si>
   <si>
-    <t>ALP41323</t>
+    <t>AL41329</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
